--- a/tables/TableS2_nutrient_key.xlsx
+++ b/tables/TableS2_nutrient_key.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/nutrition/subnational_nutrient_distributions/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51D05CAE-C840-D841-8DEE-AF4B137C1E44}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09FF26CA-484C-B14D-91BD-83C83E0EE856}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22660" yWindow="5660" windowWidth="27640" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TableS1_nutrient_key" sheetId="1" r:id="rId1"/>
@@ -106,18 +106,9 @@
     <t>Carotenoid</t>
   </si>
   <si>
-    <t>alpha-Carotene</t>
-  </si>
-  <si>
     <t>mcg</t>
   </si>
   <si>
-    <t>beta-Carotene</t>
-  </si>
-  <si>
-    <t>beta-cryptoxanthin</t>
-  </si>
-  <si>
     <t>Lutein and zeaxanthin</t>
   </si>
   <si>
@@ -227,6 +218,15 @@
   </si>
   <si>
     <t>Vitamin A (RE)</t>
+  </si>
+  <si>
+    <t>Alpha-carotene</t>
+  </si>
+  <si>
+    <t>Beta-carotene</t>
+  </si>
+  <si>
+    <t>Beta-cryptoxanthin</t>
   </si>
 </sst>
 </file>
@@ -1082,8 +1082,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1097,19 +1097,19 @@
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="17" thickTop="1" x14ac:dyDescent="0.2">
@@ -1307,7 +1307,7 @@
         <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D13" t="s">
         <v>17</v>
@@ -1477,10 +1477,10 @@
         <v>27</v>
       </c>
       <c r="C23" t="s">
+        <v>66</v>
+      </c>
+      <c r="D23" t="s">
         <v>28</v>
-      </c>
-      <c r="D23" t="s">
-        <v>29</v>
       </c>
       <c r="E23">
         <v>3</v>
@@ -1494,10 +1494,10 @@
         <v>27</v>
       </c>
       <c r="C24" t="s">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="D24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E24">
         <v>13</v>
@@ -1511,10 +1511,10 @@
         <v>27</v>
       </c>
       <c r="C25" t="s">
-        <v>31</v>
+        <v>68</v>
       </c>
       <c r="D25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E25">
         <v>3</v>
@@ -1528,10 +1528,10 @@
         <v>27</v>
       </c>
       <c r="C26" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -1545,10 +1545,10 @@
         <v>27</v>
       </c>
       <c r="C27" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -1559,10 +1559,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C28" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D28" t="s">
         <v>17</v>
@@ -1576,10 +1576,10 @@
         <v>26</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C29" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D29" t="s">
         <v>3</v>
@@ -1593,10 +1593,10 @@
         <v>26</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C30" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D30" t="s">
         <v>17</v>
@@ -1610,10 +1610,10 @@
         <v>26</v>
       </c>
       <c r="B31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" t="s">
         <v>34</v>
-      </c>
-      <c r="C31" t="s">
-        <v>37</v>
       </c>
       <c r="D31" t="s">
         <v>17</v>
@@ -1627,10 +1627,10 @@
         <v>26</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C32" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D32" t="s">
         <v>17</v>
@@ -1644,10 +1644,10 @@
         <v>26</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C33" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D33" t="s">
         <v>17</v>
@@ -1661,10 +1661,10 @@
         <v>26</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C34" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D34" t="s">
         <v>17</v>
@@ -1678,10 +1678,10 @@
         <v>26</v>
       </c>
       <c r="B35" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C35" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D35" t="s">
         <v>17</v>
@@ -1695,10 +1695,10 @@
         <v>26</v>
       </c>
       <c r="B36" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C36" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D36" t="s">
         <v>17</v>
@@ -1712,10 +1712,10 @@
         <v>26</v>
       </c>
       <c r="B37" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C37" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D37" t="s">
         <v>17</v>
@@ -1729,10 +1729,10 @@
         <v>26</v>
       </c>
       <c r="B38" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C38" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D38" t="s">
         <v>17</v>
@@ -1746,10 +1746,10 @@
         <v>26</v>
       </c>
       <c r="B39" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C39" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D39" t="s">
         <v>17</v>
@@ -1763,13 +1763,13 @@
         <v>26</v>
       </c>
       <c r="B40" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C40" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D40" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E40">
         <v>1</v>
@@ -1780,13 +1780,13 @@
         <v>26</v>
       </c>
       <c r="B41" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C41" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D41" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E41">
         <v>19</v>
@@ -1797,10 +1797,10 @@
         <v>26</v>
       </c>
       <c r="B42" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C42" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D42" t="s">
         <v>17</v>
@@ -1814,10 +1814,10 @@
         <v>26</v>
       </c>
       <c r="B43" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C43" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D43" t="s">
         <v>17</v>
@@ -1831,13 +1831,13 @@
         <v>26</v>
       </c>
       <c r="B44" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C44" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D44" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E44">
         <v>7</v>
@@ -1848,10 +1848,10 @@
         <v>26</v>
       </c>
       <c r="B45" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C45" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D45" t="s">
         <v>17</v>
@@ -1865,10 +1865,10 @@
         <v>26</v>
       </c>
       <c r="B46" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C46" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D46" t="s">
         <v>17</v>
@@ -1882,13 +1882,13 @@
         <v>26</v>
       </c>
       <c r="B47" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C47" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D47" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E47">
         <v>22</v>
@@ -1899,13 +1899,13 @@
         <v>26</v>
       </c>
       <c r="B48" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C48" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D48" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E48">
         <v>1</v>
@@ -1916,13 +1916,13 @@
         <v>26</v>
       </c>
       <c r="B49" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C49" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D49" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E49">
         <v>21</v>
@@ -1933,10 +1933,10 @@
         <v>26</v>
       </c>
       <c r="B50" t="s">
+        <v>43</v>
+      </c>
+      <c r="C50" t="s">
         <v>46</v>
-      </c>
-      <c r="C50" t="s">
-        <v>49</v>
       </c>
       <c r="D50" t="s">
         <v>17</v>
@@ -1950,10 +1950,10 @@
         <v>26</v>
       </c>
       <c r="B51" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C51" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D51" t="s">
         <v>17</v>
@@ -1967,13 +1967,13 @@
         <v>26</v>
       </c>
       <c r="B52" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C52" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D52" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E52">
         <v>13</v>
@@ -1984,10 +1984,10 @@
         <v>26</v>
       </c>
       <c r="B53" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C53" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D53" t="s">
         <v>17</v>
@@ -2001,10 +2001,10 @@
         <v>26</v>
       </c>
       <c r="B54" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C54" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D54" t="s">
         <v>17</v>

--- a/tables/TableS2_nutrient_key.xlsx
+++ b/tables/TableS2_nutrient_key.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/nutrition/subnational_nutrient_distributions/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09FF26CA-484C-B14D-91BD-83C83E0EE856}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F82BD334-02D0-944A-B0A2-8FA16A6AB624}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TableS1_nutrient_key" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="73">
   <si>
     <t>Macronutrient</t>
   </si>
@@ -157,12 +157,6 @@
     <t>Vitamin A (RAE)</t>
   </si>
   <si>
-    <t>Vitamin B12</t>
-  </si>
-  <si>
-    <t>Vitamin B6</t>
-  </si>
-  <si>
     <t>Vitamin C</t>
   </si>
   <si>
@@ -220,13 +214,31 @@
     <t>Vitamin A (RE)</t>
   </si>
   <si>
-    <t>Alpha-carotene</t>
-  </si>
-  <si>
-    <t>Beta-carotene</t>
-  </si>
-  <si>
-    <t>Beta-cryptoxanthin</t>
+    <t>Betaine</t>
+  </si>
+  <si>
+    <t>Phytate (Phytic acid)</t>
+  </si>
+  <si>
+    <t>Theobromine</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>alpha-Carotene</t>
+  </si>
+  <si>
+    <t>beta-Carotene</t>
+  </si>
+  <si>
+    <t>beta-cryptoxanthin</t>
+  </si>
+  <si>
+    <t>Vitamin B12 (Cobalamin)</t>
+  </si>
+  <si>
+    <t>Vitamin B6 (Pyridoxine)</t>
   </si>
 </sst>
 </file>
@@ -1080,10 +1092,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E54"/>
+  <dimension ref="A1:E57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1097,19 +1109,19 @@
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="17" thickTop="1" x14ac:dyDescent="0.2">
@@ -1143,7 +1155,7 @@
         <v>3</v>
       </c>
       <c r="E3">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -1177,7 +1189,7 @@
         <v>3</v>
       </c>
       <c r="E5">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -1194,7 +1206,7 @@
         <v>3</v>
       </c>
       <c r="E6">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -1245,7 +1257,7 @@
         <v>3</v>
       </c>
       <c r="E9">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -1262,7 +1274,7 @@
         <v>3</v>
       </c>
       <c r="E10">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -1307,13 +1319,13 @@
         <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D13" t="s">
         <v>17</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -1324,13 +1336,13 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="D14" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="E14">
-        <v>21</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -1341,13 +1353,13 @@
         <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D15" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="E15">
-        <v>4</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -1358,7 +1370,7 @@
         <v>13</v>
       </c>
       <c r="C16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D16" t="s">
         <v>17</v>
@@ -1375,13 +1387,13 @@
         <v>13</v>
       </c>
       <c r="C17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D17" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E17">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -1392,13 +1404,13 @@
         <v>13</v>
       </c>
       <c r="C18" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D18" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="E18">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -1409,13 +1421,13 @@
         <v>13</v>
       </c>
       <c r="C19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D19" t="s">
         <v>3</v>
       </c>
       <c r="E19">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -1423,16 +1435,16 @@
         <v>0</v>
       </c>
       <c r="B20" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C20" t="s">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="D20" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -1440,16 +1452,16 @@
         <v>0</v>
       </c>
       <c r="B21" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D21" t="s">
         <v>3</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -1457,67 +1469,67 @@
         <v>0</v>
       </c>
       <c r="B22" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C22" t="s">
-        <v>23</v>
+        <v>66</v>
       </c>
       <c r="D22" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="E22">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="B23" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C23" t="s">
-        <v>66</v>
+        <v>24</v>
       </c>
       <c r="D23" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="B24" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C24" t="s">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="D24" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="E24">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="B25" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C25" t="s">
-        <v>68</v>
+        <v>23</v>
       </c>
       <c r="D25" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
@@ -1528,13 +1540,13 @@
         <v>27</v>
       </c>
       <c r="C26" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="D26" t="s">
         <v>28</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
@@ -1545,13 +1557,13 @@
         <v>27</v>
       </c>
       <c r="C27" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="D27" t="s">
         <v>28</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
@@ -1559,16 +1571,16 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C28" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="D28" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="E28">
-        <v>22</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
@@ -1576,13 +1588,13 @@
         <v>26</v>
       </c>
       <c r="B29" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C29" t="s">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="D29" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -1593,16 +1605,16 @@
         <v>26</v>
       </c>
       <c r="B30" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C30" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D30" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="E30">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
@@ -1613,13 +1625,13 @@
         <v>31</v>
       </c>
       <c r="C31" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D31" t="s">
         <v>17</v>
       </c>
       <c r="E31">
-        <v>6</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
@@ -1630,13 +1642,13 @@
         <v>31</v>
       </c>
       <c r="C32" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="D32" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="E32">
-        <v>23</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
@@ -1647,13 +1659,13 @@
         <v>31</v>
       </c>
       <c r="C33" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D33" t="s">
         <v>17</v>
       </c>
       <c r="E33">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
@@ -1664,13 +1676,13 @@
         <v>31</v>
       </c>
       <c r="C34" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D34" t="s">
         <v>17</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
@@ -1681,13 +1693,13 @@
         <v>31</v>
       </c>
       <c r="C35" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D35" t="s">
         <v>17</v>
       </c>
       <c r="E35">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
@@ -1698,13 +1710,13 @@
         <v>31</v>
       </c>
       <c r="C36" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D36" t="s">
         <v>17</v>
       </c>
       <c r="E36">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
@@ -1715,13 +1727,13 @@
         <v>31</v>
       </c>
       <c r="C37" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D37" t="s">
         <v>17</v>
       </c>
       <c r="E37">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
@@ -1732,13 +1744,13 @@
         <v>31</v>
       </c>
       <c r="C38" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D38" t="s">
         <v>17</v>
       </c>
       <c r="E38">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
@@ -1749,13 +1761,13 @@
         <v>31</v>
       </c>
       <c r="C39" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D39" t="s">
         <v>17</v>
       </c>
       <c r="E39">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
@@ -1763,16 +1775,16 @@
         <v>26</v>
       </c>
       <c r="B40" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="C40" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="D40" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E40">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
@@ -1780,13 +1792,13 @@
         <v>26</v>
       </c>
       <c r="B41" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="C41" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="D41" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E41">
         <v>19</v>
@@ -1797,16 +1809,16 @@
         <v>26</v>
       </c>
       <c r="B42" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="C42" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="D42" t="s">
         <v>17</v>
       </c>
       <c r="E42">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
@@ -1817,10 +1829,10 @@
         <v>43</v>
       </c>
       <c r="C43" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D43" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="E43">
         <v>1</v>
@@ -1834,13 +1846,13 @@
         <v>43</v>
       </c>
       <c r="C44" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D44" t="s">
         <v>28</v>
       </c>
       <c r="E44">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
@@ -1851,13 +1863,13 @@
         <v>43</v>
       </c>
       <c r="C45" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D45" t="s">
         <v>17</v>
       </c>
       <c r="E45">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
@@ -1868,13 +1880,13 @@
         <v>43</v>
       </c>
       <c r="C46" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="D46" t="s">
         <v>17</v>
       </c>
       <c r="E46">
-        <v>21</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
@@ -1885,13 +1897,13 @@
         <v>43</v>
       </c>
       <c r="C47" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="D47" t="s">
         <v>28</v>
       </c>
       <c r="E47">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
@@ -1902,13 +1914,13 @@
         <v>43</v>
       </c>
       <c r="C48" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="D48" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E48">
-        <v>1</v>
+        <v>29</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
@@ -1919,13 +1931,13 @@
         <v>43</v>
       </c>
       <c r="C49" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="D49" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E49">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
@@ -1936,13 +1948,13 @@
         <v>43</v>
       </c>
       <c r="C50" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D50" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="E50">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
@@ -1953,13 +1965,13 @@
         <v>43</v>
       </c>
       <c r="C51" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="D51" t="s">
         <v>17</v>
       </c>
       <c r="E51">
-        <v>21</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
@@ -1970,13 +1982,13 @@
         <v>43</v>
       </c>
       <c r="C52" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="D52" t="s">
         <v>28</v>
       </c>
       <c r="E52">
-        <v>13</v>
+        <v>28</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
@@ -1987,13 +1999,13 @@
         <v>43</v>
       </c>
       <c r="C53" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="D53" t="s">
         <v>17</v>
       </c>
       <c r="E53">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
@@ -2004,13 +2016,64 @@
         <v>43</v>
       </c>
       <c r="C54" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D54" t="s">
         <v>17</v>
       </c>
       <c r="E54">
-        <v>7</v>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>26</v>
+      </c>
+      <c r="B55" t="s">
+        <v>43</v>
+      </c>
+      <c r="C55" t="s">
+        <v>46</v>
+      </c>
+      <c r="D55" t="s">
+        <v>28</v>
+      </c>
+      <c r="E55">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>26</v>
+      </c>
+      <c r="B56" t="s">
+        <v>43</v>
+      </c>
+      <c r="C56" t="s">
+        <v>47</v>
+      </c>
+      <c r="D56" t="s">
+        <v>17</v>
+      </c>
+      <c r="E56">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>26</v>
+      </c>
+      <c r="B57" t="s">
+        <v>43</v>
+      </c>
+      <c r="C57" t="s">
+        <v>48</v>
+      </c>
+      <c r="D57" t="s">
+        <v>17</v>
+      </c>
+      <c r="E57">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/tables/TableS2_nutrient_key.xlsx
+++ b/tables/TableS2_nutrient_key.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/nutrition/subnational_nutrient_distributions/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F82BD334-02D0-944A-B0A2-8FA16A6AB624}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E581BF3-2ED4-EC47-80E7-2590F4954C5A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28280" yWindow="4920" windowWidth="25600" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TableS1_nutrient_key" sheetId="1" r:id="rId1"/>
@@ -223,9 +223,6 @@
     <t>Theobromine</t>
   </si>
   <si>
-    <t>NA</t>
-  </si>
-  <si>
     <t>alpha-Carotene</t>
   </si>
   <si>
@@ -239,6 +236,9 @@
   </si>
   <si>
     <t>Vitamin B6 (Pyridoxine)</t>
+  </si>
+  <si>
+    <t>Other micronutrient</t>
   </si>
 </sst>
 </file>
@@ -1095,7 +1095,7 @@
   <dimension ref="A1:E57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="A2" sqref="A2:E57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1319,13 +1319,13 @@
         <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>64</v>
+        <v>15</v>
       </c>
       <c r="D13" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -1336,13 +1336,13 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="D14" t="s">
         <v>17</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -1353,13 +1353,13 @@
         <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D15" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="E15">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -1370,13 +1370,13 @@
         <v>13</v>
       </c>
       <c r="C16" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D16" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="E16">
-        <v>4</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -1387,13 +1387,13 @@
         <v>13</v>
       </c>
       <c r="C17" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D17" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="E17">
-        <v>8</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -1401,16 +1401,16 @@
         <v>0</v>
       </c>
       <c r="B18" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="E18">
-        <v>29</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -1418,16 +1418,16 @@
         <v>0</v>
       </c>
       <c r="B19" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D19" t="s">
         <v>3</v>
       </c>
       <c r="E19">
-        <v>27</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -1435,81 +1435,81 @@
         <v>0</v>
       </c>
       <c r="B20" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C20" t="s">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="D20" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="B21" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="C21" t="s">
-        <v>22</v>
+        <v>67</v>
       </c>
       <c r="D21" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="E21">
-        <v>30</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="B22" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="C22" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D22" t="s">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C23" t="s">
-        <v>24</v>
+        <v>69</v>
       </c>
       <c r="D23" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="B24" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C24" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D24" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -1517,19 +1517,19 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C25" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D25" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="E25">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
@@ -1537,16 +1537,16 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C26" t="s">
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="D26" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
@@ -1554,16 +1554,16 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C27" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="D27" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="E27">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
@@ -1571,16 +1571,16 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C28" t="s">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="D28" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E28">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
@@ -1588,16 +1588,16 @@
         <v>26</v>
       </c>
       <c r="B29" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C29" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D29" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
@@ -1605,16 +1605,16 @@
         <v>26</v>
       </c>
       <c r="B30" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C30" t="s">
+        <v>35</v>
+      </c>
+      <c r="D30" t="s">
+        <v>17</v>
+      </c>
+      <c r="E30">
         <v>30</v>
-      </c>
-      <c r="D30" t="s">
-        <v>28</v>
-      </c>
-      <c r="E30">
-        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
@@ -1625,13 +1625,13 @@
         <v>31</v>
       </c>
       <c r="C31" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D31" t="s">
         <v>17</v>
       </c>
       <c r="E31">
-        <v>30</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
@@ -1642,10 +1642,10 @@
         <v>31</v>
       </c>
       <c r="C32" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="D32" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -1659,13 +1659,13 @@
         <v>31</v>
       </c>
       <c r="C33" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D33" t="s">
         <v>17</v>
       </c>
       <c r="E33">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
@@ -1676,13 +1676,13 @@
         <v>31</v>
       </c>
       <c r="C34" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D34" t="s">
         <v>17</v>
       </c>
       <c r="E34">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
@@ -1693,13 +1693,13 @@
         <v>31</v>
       </c>
       <c r="C35" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D35" t="s">
         <v>17</v>
       </c>
       <c r="E35">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
@@ -1710,13 +1710,13 @@
         <v>31</v>
       </c>
       <c r="C36" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D36" t="s">
         <v>17</v>
       </c>
       <c r="E36">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
@@ -1727,13 +1727,13 @@
         <v>31</v>
       </c>
       <c r="C37" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D37" t="s">
         <v>17</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
@@ -1741,16 +1741,16 @@
         <v>26</v>
       </c>
       <c r="B38" t="s">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="C38" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="D38" t="s">
         <v>17</v>
       </c>
       <c r="E38">
-        <v>16</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
@@ -1758,16 +1758,16 @@
         <v>26</v>
       </c>
       <c r="B39" t="s">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="C39" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="D39" t="s">
         <v>17</v>
       </c>
       <c r="E39">
-        <v>19</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
@@ -1775,16 +1775,16 @@
         <v>26</v>
       </c>
       <c r="B40" t="s">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="C40" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="D40" t="s">
         <v>17</v>
       </c>
       <c r="E40">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
@@ -1792,16 +1792,16 @@
         <v>26</v>
       </c>
       <c r="B41" t="s">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="C41" t="s">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="D41" t="s">
         <v>17</v>
       </c>
       <c r="E41">
-        <v>19</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
@@ -1809,16 +1809,16 @@
         <v>26</v>
       </c>
       <c r="B42" t="s">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="C42" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="D42" t="s">
         <v>17</v>
       </c>
       <c r="E42">
-        <v>30</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
@@ -1982,7 +1982,7 @@
         <v>43</v>
       </c>
       <c r="C52" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D52" t="s">
         <v>28</v>
@@ -1999,7 +1999,7 @@
         <v>43</v>
       </c>
       <c r="C53" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D53" t="s">
         <v>17</v>

--- a/tables/TableS2_nutrient_key.xlsx
+++ b/tables/TableS2_nutrient_key.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/nutrition/subnational_nutrient_distributions/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E581BF3-2ED4-EC47-80E7-2590F4954C5A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5303EDC6-F742-EB48-B57B-5A24F0857D19}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28280" yWindow="4920" windowWidth="25600" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28120" yWindow="6820" windowWidth="25600" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TableS1_nutrient_key" sheetId="1" r:id="rId1"/>
@@ -1095,7 +1095,7 @@
   <dimension ref="A1:E57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E57"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1155,7 +1155,7 @@
         <v>3</v>
       </c>
       <c r="E3">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -1325,7 +1325,7 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -1359,7 +1359,7 @@
         <v>20</v>
       </c>
       <c r="E15">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -1376,7 +1376,7 @@
         <v>3</v>
       </c>
       <c r="E16">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -1393,7 +1393,7 @@
         <v>3</v>
       </c>
       <c r="E17">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -1546,7 +1546,7 @@
         <v>17</v>
       </c>
       <c r="E26">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
@@ -1614,7 +1614,7 @@
         <v>17</v>
       </c>
       <c r="E30">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
@@ -1631,7 +1631,7 @@
         <v>17</v>
       </c>
       <c r="E31">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
@@ -1682,7 +1682,7 @@
         <v>17</v>
       </c>
       <c r="E34">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
@@ -1716,7 +1716,7 @@
         <v>17</v>
       </c>
       <c r="E36">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
@@ -1733,7 +1733,7 @@
         <v>17</v>
       </c>
       <c r="E37">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
@@ -1852,7 +1852,7 @@
         <v>28</v>
       </c>
       <c r="E44">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
@@ -1869,7 +1869,7 @@
         <v>17</v>
       </c>
       <c r="E45">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
@@ -1920,7 +1920,7 @@
         <v>17</v>
       </c>
       <c r="E48">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
@@ -1937,7 +1937,7 @@
         <v>17</v>
       </c>
       <c r="E49">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
@@ -1954,7 +1954,7 @@
         <v>28</v>
       </c>
       <c r="E50">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
@@ -1988,7 +1988,7 @@
         <v>28</v>
       </c>
       <c r="E52">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
@@ -2005,7 +2005,7 @@
         <v>17</v>
       </c>
       <c r="E53">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
@@ -2022,7 +2022,7 @@
         <v>17</v>
       </c>
       <c r="E54">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
@@ -2039,7 +2039,7 @@
         <v>28</v>
       </c>
       <c r="E55">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
@@ -2056,7 +2056,7 @@
         <v>17</v>
       </c>
       <c r="E56">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
